--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S5/S5_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S5/S5_lossmod.xlsx
@@ -14,240 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>92.46275228484386</t>
-  </si>
-  <si>
-    <t>94.07808929931454</t>
-  </si>
-  <si>
-    <t>95.69342631378522</t>
-  </si>
-  <si>
-    <t>97.30876332825589</t>
-  </si>
-  <si>
-    <t>98.70382711348057</t>
-  </si>
-  <si>
-    <t>99.87861766945925</t>
-  </si>
-  <si>
-    <t>101.27368145468392</t>
-  </si>
-  <si>
-    <t>102.63203303503427</t>
-  </si>
-  <si>
-    <t>103.69668697638994</t>
-  </si>
-  <si>
-    <t>105.23859958111196</t>
-  </si>
-  <si>
-    <t>106.85393659558264</t>
-  </si>
-  <si>
-    <t>108.4692736100533</t>
-  </si>
-  <si>
-    <t>110.08461062452399</t>
-  </si>
-  <si>
-    <t>111.69994763899467</t>
-  </si>
-  <si>
-    <t>113.31528465346534</t>
-  </si>
-  <si>
-    <t>114.93062166793602</t>
-  </si>
-  <si>
-    <t>116.5459586824067</t>
-  </si>
-  <si>
-    <t>118.16129569687737</t>
-  </si>
-  <si>
-    <t>119.77663271134806</t>
-  </si>
-  <si>
-    <t>121.39196972581874</t>
-  </si>
-  <si>
-    <t>123.00730674028941</t>
-  </si>
-  <si>
-    <t>124.62264375476009</t>
-  </si>
-  <si>
-    <t>126.23798076923077</t>
-  </si>
-  <si>
-    <t>127.85331778370144</t>
-  </si>
-  <si>
-    <t>129.46865479817214</t>
-  </si>
-  <si>
-    <t>131.0839918126428</t>
-  </si>
-  <si>
-    <t>132.69932882711348</t>
-  </si>
-  <si>
-    <t>134.31466584158417</t>
-  </si>
-  <si>
-    <t>135.93000285605484</t>
-  </si>
-  <si>
-    <t>137.5453398705255</t>
-  </si>
-  <si>
-    <t>139.16067688499618</t>
-  </si>
-  <si>
-    <t>140.77601389946688</t>
-  </si>
-  <si>
-    <t>142.39135091393757</t>
-  </si>
-  <si>
-    <t>144.0066879284082</t>
-  </si>
-  <si>
-    <t>145.6220249428789</t>
-  </si>
-  <si>
-    <t>147.2373619573496</t>
-  </si>
-  <si>
-    <t>148.85269897182027</t>
-  </si>
-  <si>
-    <t>149.80721629855293</t>
-  </si>
-  <si>
-    <t>256592.85848048312</t>
-  </si>
-  <si>
-    <t>284959.77885964455</t>
-  </si>
-  <si>
-    <t>330791.6097510476</t>
-  </si>
-  <si>
-    <t>400230.8461082953</t>
-  </si>
-  <si>
-    <t>487522.7070821421</t>
-  </si>
-  <si>
-    <t>581650.813748694</t>
-  </si>
-  <si>
-    <t>772080.4826022588</t>
-  </si>
-  <si>
-    <t>947707.8347714479</t>
-  </si>
-  <si>
-    <t>1191946.7534302024</t>
-  </si>
-  <si>
-    <t>1530359.7004567152</t>
-  </si>
-  <si>
-    <t>1725655.2029723423</t>
-  </si>
-  <si>
-    <t>1843445.637169893</t>
-  </si>
-  <si>
-    <t>1926487.477621824</t>
-  </si>
-  <si>
-    <t>1838407.9743737204</t>
-  </si>
-  <si>
-    <t>1685665.8445064873</t>
-  </si>
-  <si>
-    <t>1501517.0140884938</t>
-  </si>
-  <si>
-    <t>1345511.8847733606</t>
-  </si>
-  <si>
-    <t>1214840.324377553</t>
-  </si>
-  <si>
-    <t>1107862.8693323152</t>
-  </si>
-  <si>
-    <t>964417.5386105169</t>
-  </si>
-  <si>
-    <t>844719.818497618</t>
-  </si>
-  <si>
-    <t>754090.6671395982</t>
-  </si>
-  <si>
-    <t>693178.7359615179</t>
-  </si>
-  <si>
-    <t>641894.9079141935</t>
-  </si>
-  <si>
-    <t>589555.4264273135</t>
-  </si>
-  <si>
-    <t>543996.8543956637</t>
-  </si>
-  <si>
-    <t>508361.56073042</t>
-  </si>
-  <si>
-    <t>469690.38214232767</t>
-  </si>
-  <si>
-    <t>443638.1005684754</t>
-  </si>
-  <si>
-    <t>419093.0545173281</t>
-  </si>
-  <si>
-    <t>396141.1107664204</t>
-  </si>
-  <si>
-    <t>387736.42212947697</t>
-  </si>
-  <si>
-    <t>363425.111042839</t>
-  </si>
-  <si>
-    <t>348647.9554047398</t>
-  </si>
-  <si>
-    <t>334849.135095135</t>
-  </si>
-  <si>
-    <t>317961.0242068714</t>
-  </si>
-  <si>
-    <t>303857.67759267567</t>
-  </si>
-  <si>
-    <t>309452.7249622487</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -620,307 +392,307 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="A2">
+        <v>92.46275228484386</v>
+      </c>
+      <c r="B2">
+        <v>256592.8584804831</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+      <c r="A3">
+        <v>94.07808929931454</v>
+      </c>
+      <c r="B3">
+        <v>284959.7788596445</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
+      <c r="A4">
+        <v>95.69342631378522</v>
+      </c>
+      <c r="B4">
+        <v>330791.6097510476</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
+      <c r="A5">
+        <v>97.30876332825589</v>
+      </c>
+      <c r="B5">
+        <v>400230.8461082953</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
+      <c r="A6">
+        <v>98.70382711348057</v>
+      </c>
+      <c r="B6">
+        <v>487522.7070821421</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+      <c r="A7">
+        <v>99.87861766945925</v>
+      </c>
+      <c r="B7">
+        <v>581650.813748694</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+      <c r="A8">
+        <v>101.2736814546839</v>
+      </c>
+      <c r="B8">
+        <v>772080.4826022588</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
+      <c r="A9">
+        <v>102.6320330350343</v>
+      </c>
+      <c r="B9">
+        <v>947707.8347714479</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
+      <c r="A10">
+        <v>103.6966869763899</v>
+      </c>
+      <c r="B10">
+        <v>1191946.753430202</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
+      <c r="A11">
+        <v>105.238599581112</v>
+      </c>
+      <c r="B11">
+        <v>1530359.700456715</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
+      <c r="A12">
+        <v>106.8539365955826</v>
+      </c>
+      <c r="B12">
+        <v>1725655.202972342</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
+      <c r="A13">
+        <v>108.4692736100533</v>
+      </c>
+      <c r="B13">
+        <v>1843445.637169893</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+      <c r="A14">
+        <v>110.084610624524</v>
+      </c>
+      <c r="B14">
+        <v>1926487.477621824</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
+      <c r="A15">
+        <v>111.6999476389947</v>
+      </c>
+      <c r="B15">
+        <v>1838407.97437372</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
+      <c r="A16">
+        <v>113.3152846534653</v>
+      </c>
+      <c r="B16">
+        <v>1685665.844506487</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
+      <c r="A17">
+        <v>114.930621667936</v>
+      </c>
+      <c r="B17">
+        <v>1501517.014088494</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
+      <c r="A18">
+        <v>116.5459586824067</v>
+      </c>
+      <c r="B18">
+        <v>1345511.884773361</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
+      <c r="A19">
+        <v>118.1612956968774</v>
+      </c>
+      <c r="B19">
+        <v>1214840.324377553</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
+      <c r="A20">
+        <v>119.7766327113481</v>
+      </c>
+      <c r="B20">
+        <v>1107862.869332315</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
+      <c r="A21">
+        <v>121.3919697258187</v>
+      </c>
+      <c r="B21">
+        <v>964417.5386105169</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
+      <c r="A22">
+        <v>123.0073067402894</v>
+      </c>
+      <c r="B22">
+        <v>844719.818497618</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
+      <c r="A23">
+        <v>124.6226437547601</v>
+      </c>
+      <c r="B23">
+        <v>754090.6671395982</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
+      <c r="A24">
+        <v>126.2379807692308</v>
+      </c>
+      <c r="B24">
+        <v>693178.7359615179</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
+      <c r="A25">
+        <v>127.8533177837014</v>
+      </c>
+      <c r="B25">
+        <v>641894.9079141935</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
+      <c r="A26">
+        <v>129.4686547981721</v>
+      </c>
+      <c r="B26">
+        <v>589555.4264273135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
+      <c r="A27">
+        <v>131.0839918126428</v>
+      </c>
+      <c r="B27">
+        <v>543996.8543956637</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
+      <c r="A28">
+        <v>132.6993288271135</v>
+      </c>
+      <c r="B28">
+        <v>508361.56073042</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
+      <c r="A29">
+        <v>134.3146658415842</v>
+      </c>
+      <c r="B29">
+        <v>469690.3821423277</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
+      <c r="A30">
+        <v>135.9300028560548</v>
+      </c>
+      <c r="B30">
+        <v>443638.1005684754</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
+      <c r="A31">
+        <v>137.5453398705255</v>
+      </c>
+      <c r="B31">
+        <v>419093.0545173281</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
+      <c r="A32">
+        <v>139.1606768849962</v>
+      </c>
+      <c r="B32">
+        <v>396141.1107664204</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
+      <c r="A33">
+        <v>140.7760138994669</v>
+      </c>
+      <c r="B33">
+        <v>387736.422129477</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
+      <c r="A34">
+        <v>142.3913509139376</v>
+      </c>
+      <c r="B34">
+        <v>363425.111042839</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
+      <c r="A35">
+        <v>144.0066879284082</v>
+      </c>
+      <c r="B35">
+        <v>348647.9554047398</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
+      <c r="A36">
+        <v>145.6220249428789</v>
+      </c>
+      <c r="B36">
+        <v>334849.135095135</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
+      <c r="A37">
+        <v>147.2373619573496</v>
+      </c>
+      <c r="B37">
+        <v>317961.0242068714</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
+      <c r="A38">
+        <v>148.8526989718203</v>
+      </c>
+      <c r="B38">
+        <v>303857.6775926757</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
+      <c r="A39">
+        <v>149.8072162985529</v>
+      </c>
+      <c r="B39">
+        <v>309452.7249622487</v>
       </c>
     </row>
   </sheetData>
